--- a/trainee_dataset.xlsx
+++ b/trainee_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabianboehm/Nextcloud/1_Promotion/1_Paper/15_BlocklyRange/DigitalTwinSOCBlocklyCyberRange/Github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mviel\Nextcloud\DigitalTwinSOCBlocklyCyberRange\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDB3D30-DAF2-994E-9A73-197C0947846E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4990575A-8AD5-42CD-BC3D-6F464A8C3AB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="51195" windowHeight="26655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -21,15 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -1423,21 +1414,6 @@
     <t>Timestamp when trainee ended Task 5</t>
   </si>
   <si>
-    <t>Time difference between task1_end and task1_start</t>
-  </si>
-  <si>
-    <t>Time difference between task2_end and task2_start</t>
-  </si>
-  <si>
-    <t>Time difference between task3_end and task3_start</t>
-  </si>
-  <si>
-    <t>Time difference between task4_end and task4_start</t>
-  </si>
-  <si>
-    <t>Time difference between task5_end and task5_start</t>
-  </si>
-  <si>
     <t>Average from task2_tlx_1, task2_tlx_2, task2_tlx_3, task2_tlx_4</t>
   </si>
   <si>
@@ -1652,17 +1628,31 @@
   </si>
   <si>
     <t>Is post_siemdk_avg better/same/worse than pre_siemdk_avg?</t>
+  </si>
+  <si>
+    <t>Time difference between task4_end and task4_start in seconds</t>
+  </si>
+  <si>
+    <t>Time difference between task2_end and task2_start  in seconds</t>
+  </si>
+  <si>
+    <t>Time difference between task1_end and task1_start  in seconds</t>
+  </si>
+  <si>
+    <t>Time difference between task3_end and task3_start  in seconds</t>
+  </si>
+  <si>
+    <t>Time difference between task5_end and task5_start  in seconds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="185" formatCode="0.000000000000000000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1710,12 +1700,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2000,21 +1989,67 @@
   <dimension ref="A1:CX64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="42" width="12" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="11" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="50" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="54" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="58" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="62" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="66" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="70" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="74" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="80" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="84" width="12" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="88" width="15" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="91" max="92" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="93" max="94" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="95" max="98" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="99" max="100" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:102">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2322,15 +2357,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:102">
       <c r="A2" t="s">
         <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>398</v>
       </c>
-      <c r="C2" s="4">
-        <v>3.1481481481481444E-2</v>
+      <c r="C2">
+        <v>2719.9999999999968</v>
       </c>
       <c r="D2" t="s">
         <v>98</v>
@@ -2338,8 +2373,8 @@
       <c r="E2" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="4">
-        <v>1.9560185185185652E-3</v>
+      <c r="F2">
+        <v>169.00000000000404</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2362,8 +2397,8 @@
       <c r="M2" t="s">
         <v>101</v>
       </c>
-      <c r="N2" s="4">
-        <v>2.8125000000000511E-3</v>
+      <c r="N2">
+        <v>243.00000000000441</v>
       </c>
       <c r="O2">
         <v>3</v>
@@ -2386,8 +2421,8 @@
       <c r="U2" t="s">
         <v>103</v>
       </c>
-      <c r="V2" s="4">
-        <v>5.9027777777777568E-3</v>
+      <c r="V2">
+        <v>509.99999999999818</v>
       </c>
       <c r="W2">
         <v>4</v>
@@ -2410,8 +2445,8 @@
       <c r="AC2" t="s">
         <v>105</v>
       </c>
-      <c r="AD2" s="4">
-        <v>6.9907407407407418E-3</v>
+      <c r="AD2">
+        <v>604.00000000000011</v>
       </c>
       <c r="AE2">
         <v>4</v>
@@ -2434,8 +2469,8 @@
       <c r="AK2" t="s">
         <v>107</v>
       </c>
-      <c r="AL2" s="4">
-        <v>3.9814814814814747E-3</v>
+      <c r="AL2">
+        <v>343.99999999999943</v>
       </c>
       <c r="AM2" s="2">
         <v>4</v>
@@ -2630,15 +2665,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:102">
       <c r="A3" t="s">
         <v>89</v>
       </c>
       <c r="B3" t="s">
         <v>399</v>
       </c>
-      <c r="C3" s="4">
-        <v>2.4351851851851847E-2</v>
+      <c r="C3">
+        <v>2103.9999999999995</v>
       </c>
       <c r="D3" t="s">
         <v>108</v>
@@ -2646,8 +2681,8 @@
       <c r="E3" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="4">
-        <v>4.6296296296299833E-4</v>
+      <c r="F3">
+        <v>40.000000000003055</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2670,8 +2705,8 @@
       <c r="M3" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="4">
-        <v>1.5393518518518334E-3</v>
+      <c r="N3">
+        <v>132.99999999999841</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -2694,8 +2729,8 @@
       <c r="U3" t="s">
         <v>113</v>
       </c>
-      <c r="V3" s="4">
-        <v>3.0439814814814392E-3</v>
+      <c r="V3">
+        <v>262.99999999999636</v>
       </c>
       <c r="W3">
         <v>2</v>
@@ -2718,8 +2753,8 @@
       <c r="AC3" t="s">
         <v>115</v>
       </c>
-      <c r="AD3" s="4">
-        <v>1.5740740740740611E-3</v>
+      <c r="AD3">
+        <v>135.99999999999886</v>
       </c>
       <c r="AE3">
         <v>3</v>
@@ -2742,8 +2777,8 @@
       <c r="AK3" t="s">
         <v>117</v>
       </c>
-      <c r="AL3" s="4">
-        <v>1.6898148148148384E-3</v>
+      <c r="AL3">
+        <v>146.00000000000205</v>
       </c>
       <c r="AM3" s="2">
         <v>1</v>
@@ -2938,15 +2973,15 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:102">
       <c r="A4" t="s">
         <v>89</v>
       </c>
       <c r="B4" t="s">
         <v>400</v>
       </c>
-      <c r="C4" s="4">
-        <v>2.8576388888888971E-2</v>
+      <c r="C4">
+        <v>2469.0000000000073</v>
       </c>
       <c r="D4" t="s">
         <v>118</v>
@@ -2954,8 +2989,8 @@
       <c r="E4" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="4">
-        <v>3.0787037037036669E-3</v>
+      <c r="F4">
+        <v>265.99999999999682</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2978,8 +3013,8 @@
       <c r="M4" t="s">
         <v>121</v>
       </c>
-      <c r="N4" s="4">
-        <v>1.9675925925925486E-3</v>
+      <c r="N4">
+        <v>169.99999999999619</v>
       </c>
       <c r="O4">
         <v>2</v>
@@ -3002,8 +3037,8 @@
       <c r="U4" t="s">
         <v>123</v>
       </c>
-      <c r="V4" s="4">
-        <v>1.9212962962962821E-3</v>
+      <c r="V4">
+        <v>165.99999999999878</v>
       </c>
       <c r="W4">
         <v>2</v>
@@ -3026,8 +3061,8 @@
       <c r="AC4" t="s">
         <v>125</v>
       </c>
-      <c r="AD4" s="4">
-        <v>2.2569444444444087E-3</v>
+      <c r="AD4">
+        <v>194.9999999999969</v>
       </c>
       <c r="AE4">
         <v>4</v>
@@ -3050,8 +3085,8 @@
       <c r="AK4" t="s">
         <v>127</v>
       </c>
-      <c r="AL4" s="4">
-        <v>6.0763888888889506E-3</v>
+      <c r="AL4">
+        <v>525.00000000000534</v>
       </c>
       <c r="AM4" s="2">
         <v>4</v>
@@ -3246,15 +3281,15 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:102">
       <c r="A5" t="s">
         <v>89</v>
       </c>
       <c r="B5" t="s">
         <v>401</v>
       </c>
-      <c r="C5" s="4">
-        <v>3.7303240740740651E-2</v>
+      <c r="C5">
+        <v>3222.9999999999923</v>
       </c>
       <c r="D5" t="s">
         <v>128</v>
@@ -3262,8 +3297,8 @@
       <c r="E5" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="4">
-        <v>8.3680555555554759E-3</v>
+      <c r="F5">
+        <v>722.99999999999307</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3286,8 +3321,8 @@
       <c r="M5" t="s">
         <v>131</v>
       </c>
-      <c r="N5" s="4">
-        <v>1.2615740740740677E-3</v>
+      <c r="N5">
+        <v>108.99999999999946</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -3310,8 +3345,8 @@
       <c r="U5" t="s">
         <v>133</v>
       </c>
-      <c r="V5" s="4">
-        <v>4.8842592592592271E-3</v>
+      <c r="V5">
+        <v>421.99999999999721</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -3334,8 +3369,8 @@
       <c r="AC5" t="s">
         <v>135</v>
       </c>
-      <c r="AD5" s="4">
-        <v>1.7824074074073715E-3</v>
+      <c r="AD5">
+        <v>153.9999999999969</v>
       </c>
       <c r="AE5">
         <v>1</v>
@@ -3358,8 +3393,8 @@
       <c r="AK5" t="s">
         <v>137</v>
       </c>
-      <c r="AL5" s="4">
-        <v>2.8819444444443953E-3</v>
+      <c r="AL5">
+        <v>248.99999999999577</v>
       </c>
       <c r="AM5" s="2">
         <v>2</v>
@@ -3554,15 +3589,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:102">
       <c r="A6" t="s">
         <v>89</v>
       </c>
       <c r="B6" t="s">
         <v>402</v>
       </c>
-      <c r="C6" s="4">
-        <v>3.6053240740740677E-2</v>
+      <c r="C6">
+        <v>3114.9999999999945</v>
       </c>
       <c r="D6" t="s">
         <v>138</v>
@@ -3570,8 +3605,8 @@
       <c r="E6" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="4">
-        <v>1.0601851851851807E-2</v>
+      <c r="F6">
+        <v>915.99999999999613</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -3594,8 +3629,8 @@
       <c r="M6" t="s">
         <v>141</v>
       </c>
-      <c r="N6" s="4">
-        <v>2.5115740740740411E-3</v>
+      <c r="N6">
+        <v>216.99999999999716</v>
       </c>
       <c r="O6">
         <v>3</v>
@@ -3618,8 +3653,8 @@
       <c r="U6" t="s">
         <v>143</v>
       </c>
-      <c r="V6" s="4">
-        <v>2.7777777777777679E-3</v>
+      <c r="V6">
+        <v>239.99999999999915</v>
       </c>
       <c r="W6">
         <v>3</v>
@@ -3642,8 +3677,8 @@
       <c r="AC6" t="s">
         <v>145</v>
       </c>
-      <c r="AD6" s="4">
-        <v>6.2152777777777501E-3</v>
+      <c r="AD6">
+        <v>536.99999999999761</v>
       </c>
       <c r="AE6">
         <v>3</v>
@@ -3666,8 +3701,8 @@
       <c r="AK6" t="s">
         <v>147</v>
       </c>
-      <c r="AL6" s="4">
-        <v>2.8935185185184897E-3</v>
+      <c r="AL6">
+        <v>249.9999999999975</v>
       </c>
       <c r="AM6" s="2">
         <v>3</v>
@@ -3862,15 +3897,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:102">
       <c r="A7" t="s">
         <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="4">
-        <v>2.5671296296296275E-2</v>
+      <c r="C7">
+        <v>2217.9999999999982</v>
       </c>
       <c r="D7" t="s">
         <v>148</v>
@@ -3878,8 +3913,8 @@
       <c r="E7" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="4">
-        <v>1.3078703703703898E-3</v>
+      <c r="F7">
+        <v>113.00000000000168</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3902,8 +3937,8 @@
       <c r="M7" t="s">
         <v>151</v>
       </c>
-      <c r="N7" s="4">
-        <v>2.0254629629630205E-3</v>
+      <c r="N7">
+        <v>175.00000000000497</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -3926,8 +3961,8 @@
       <c r="U7" t="s">
         <v>153</v>
       </c>
-      <c r="V7" s="4">
-        <v>1.87499999999996E-3</v>
+      <c r="V7">
+        <v>161.99999999999653</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -3950,8 +3985,8 @@
       <c r="AC7" t="s">
         <v>155</v>
       </c>
-      <c r="AD7" s="4">
-        <v>2.0138888888889261E-3</v>
+      <c r="AD7">
+        <v>174.00000000000321</v>
       </c>
       <c r="AE7">
         <v>2</v>
@@ -3974,8 +4009,8 @@
       <c r="AK7" t="s">
         <v>157</v>
       </c>
-      <c r="AL7" s="4">
-        <v>3.4837962962962488E-3</v>
+      <c r="AL7">
+        <v>300.99999999999591</v>
       </c>
       <c r="AM7" s="2">
         <v>2</v>
@@ -4170,15 +4205,15 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:102">
       <c r="A8" t="s">
         <v>89</v>
       </c>
       <c r="B8" t="s">
         <v>404</v>
       </c>
-      <c r="C8" s="4">
-        <v>3.7592592592592622E-2</v>
+      <c r="C8">
+        <v>3248.0000000000027</v>
       </c>
       <c r="D8" t="s">
         <v>158</v>
@@ -4186,8 +4221,8 @@
       <c r="E8" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="4">
-        <v>2.3148148148149916E-4</v>
+      <c r="F8">
+        <v>20.000000000001528</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -4210,8 +4245,8 @@
       <c r="M8" t="s">
         <v>161</v>
       </c>
-      <c r="N8" s="4">
-        <v>1.6666666666667052E-3</v>
+      <c r="N8">
+        <v>144.00000000000333</v>
       </c>
       <c r="O8">
         <v>3</v>
@@ -4234,8 +4269,8 @@
       <c r="U8" t="s">
         <v>163</v>
       </c>
-      <c r="V8" s="4">
-        <v>2.3148148148147696E-3</v>
+      <c r="V8">
+        <v>199.99999999999608</v>
       </c>
       <c r="W8">
         <v>4</v>
@@ -4258,8 +4293,8 @@
       <c r="AC8" t="s">
         <v>165</v>
       </c>
-      <c r="AD8" s="4">
-        <v>5.5555555555553138E-4</v>
+      <c r="AD8">
+        <v>47.999999999997911</v>
       </c>
       <c r="AE8">
         <v>5</v>
@@ -4282,8 +4317,8 @@
       <c r="AK8" t="s">
         <v>167</v>
       </c>
-      <c r="AL8" s="4">
-        <v>3.310185185185166E-3</v>
+      <c r="AL8">
+        <v>285.99999999999835</v>
       </c>
       <c r="AM8" s="2">
         <v>5</v>
@@ -4478,15 +4513,15 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:102">
       <c r="A9" t="s">
         <v>89</v>
       </c>
       <c r="B9" t="s">
         <v>405</v>
       </c>
-      <c r="C9" s="4">
-        <v>2.8715277777777826E-2</v>
+      <c r="C9">
+        <v>2481.0000000000041</v>
       </c>
       <c r="D9" t="s">
         <v>168</v>
@@ -4494,8 +4529,8 @@
       <c r="E9" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="4">
-        <v>4.5138888888884843E-4</v>
+      <c r="F9">
+        <v>38.999999999996504</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -4518,8 +4553,8 @@
       <c r="M9" t="s">
         <v>171</v>
       </c>
-      <c r="N9" s="4">
-        <v>7.6388888888884177E-4</v>
+      <c r="N9">
+        <v>65.999999999995936</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -4542,8 +4577,8 @@
       <c r="U9" t="s">
         <v>173</v>
       </c>
-      <c r="V9" s="4">
-        <v>2.3726851851851305E-3</v>
+      <c r="V9">
+        <v>204.99999999999528</v>
       </c>
       <c r="W9">
         <v>4</v>
@@ -4566,8 +4601,8 @@
       <c r="AC9" t="s">
         <v>175</v>
       </c>
-      <c r="AD9" s="4">
-        <v>4.0509259259263741E-4</v>
+      <c r="AD9">
+        <v>35.000000000003872</v>
       </c>
       <c r="AE9">
         <v>4</v>
@@ -4590,8 +4625,8 @@
       <c r="AK9" t="s">
         <v>177</v>
       </c>
-      <c r="AL9" s="4">
-        <v>1.8402777777777324E-3</v>
+      <c r="AL9">
+        <v>158.99999999999608</v>
       </c>
       <c r="AM9" s="2">
         <v>4</v>
@@ -4786,15 +4821,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:102">
       <c r="A10" t="s">
         <v>89</v>
       </c>
       <c r="B10" t="s">
         <v>406</v>
       </c>
-      <c r="C10" s="4">
-        <v>4.3668981481481461E-2</v>
+      <c r="C10">
+        <v>3772.9999999999982</v>
       </c>
       <c r="D10" t="s">
         <v>178</v>
@@ -4802,8 +4837,8 @@
       <c r="E10" t="s">
         <v>179</v>
       </c>
-      <c r="F10" s="4">
-        <v>1.4386574074074066E-2</v>
+      <c r="F10">
+        <v>1242.9999999999993</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -4826,8 +4861,8 @@
       <c r="M10" t="s">
         <v>181</v>
       </c>
-      <c r="N10" s="4">
-        <v>2.8703703703703565E-3</v>
+      <c r="N10">
+        <v>247.99999999999881</v>
       </c>
       <c r="O10">
         <v>2</v>
@@ -4850,8 +4885,8 @@
       <c r="U10" t="s">
         <v>183</v>
       </c>
-      <c r="V10" s="4">
-        <v>3.9699074074073804E-3</v>
+      <c r="V10">
+        <v>342.99999999999767</v>
       </c>
       <c r="W10">
         <v>2</v>
@@ -4874,8 +4909,8 @@
       <c r="AC10" t="s">
         <v>185</v>
       </c>
-      <c r="AD10" s="4">
-        <v>6.2384259259259944E-3</v>
+      <c r="AD10">
+        <v>539.00000000000591</v>
       </c>
       <c r="AE10">
         <v>5</v>
@@ -4898,8 +4933,8 @@
       <c r="AK10" t="s">
         <v>187</v>
       </c>
-      <c r="AL10" s="4">
-        <v>4.7222222222221832E-3</v>
+      <c r="AL10">
+        <v>407.99999999999665</v>
       </c>
       <c r="AM10" s="2">
         <v>4</v>
@@ -5094,15 +5129,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:102">
       <c r="A11" t="s">
         <v>89</v>
       </c>
       <c r="B11" t="s">
         <v>407</v>
       </c>
-      <c r="C11" s="4">
-        <v>4.7766203703703769E-2</v>
+      <c r="C11">
+        <v>4127.0000000000055</v>
       </c>
       <c r="D11" t="s">
         <v>188</v>
@@ -5110,8 +5145,8 @@
       <c r="E11" t="s">
         <v>189</v>
       </c>
-      <c r="F11" s="4">
-        <v>6.134259259259478E-4</v>
+      <c r="F11">
+        <v>53.00000000000189</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -5134,8 +5169,8 @@
       <c r="M11" t="s">
         <v>191</v>
       </c>
-      <c r="N11" s="4">
-        <v>2.0254629629629095E-3</v>
+      <c r="N11">
+        <v>174.9999999999954</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -5158,8 +5193,8 @@
       <c r="U11" t="s">
         <v>193</v>
       </c>
-      <c r="V11" s="4">
-        <v>5.4050925925925863E-3</v>
+      <c r="V11">
+        <v>466.99999999999943</v>
       </c>
       <c r="W11">
         <v>4</v>
@@ -5182,8 +5217,8 @@
       <c r="AC11" t="s">
         <v>195</v>
       </c>
-      <c r="AD11" s="4">
-        <v>5.1041666666666874E-3</v>
+      <c r="AD11">
+        <v>441.00000000000182</v>
       </c>
       <c r="AE11">
         <v>3</v>
@@ -5206,8 +5241,8 @@
       <c r="AK11" t="s">
         <v>197</v>
       </c>
-      <c r="AL11" s="4">
-        <v>4.4560185185185119E-3</v>
+      <c r="AL11">
+        <v>384.99999999999943</v>
       </c>
       <c r="AM11" s="2">
         <v>3</v>
@@ -5402,15 +5437,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:102">
       <c r="A12" t="s">
         <v>89</v>
       </c>
       <c r="B12" t="s">
         <v>408</v>
       </c>
-      <c r="C12" s="4">
-        <v>4.8298611111111223E-2</v>
+      <c r="C12">
+        <v>4173.00000000001</v>
       </c>
       <c r="D12" t="s">
         <v>198</v>
@@ -5418,8 +5453,8 @@
       <c r="E12" t="s">
         <v>199</v>
       </c>
-      <c r="F12" s="4">
-        <v>1.0555555555555651E-2</v>
+      <c r="F12">
+        <v>912.0000000000083</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5442,8 +5477,8 @@
       <c r="M12" t="s">
         <v>201</v>
       </c>
-      <c r="N12" s="4">
-        <v>1.7592592592592382E-3</v>
+      <c r="N12">
+        <v>151.99999999999818</v>
       </c>
       <c r="O12">
         <v>2</v>
@@ -5466,8 +5501,8 @@
       <c r="U12" t="s">
         <v>203</v>
       </c>
-      <c r="V12" s="4">
-        <v>6.1574074074073337E-3</v>
+      <c r="V12">
+        <v>531.99999999999363</v>
       </c>
       <c r="W12">
         <v>2</v>
@@ -5490,8 +5525,8 @@
       <c r="AC12" t="s">
         <v>205</v>
       </c>
-      <c r="AD12" s="4">
-        <v>5.2199074074072982E-3</v>
+      <c r="AD12">
+        <v>450.99999999999056</v>
       </c>
       <c r="AE12">
         <v>2</v>
@@ -5514,8 +5549,8 @@
       <c r="AK12" t="s">
         <v>207</v>
       </c>
-      <c r="AL12" s="4">
-        <v>3.6226851851852704E-3</v>
+      <c r="AL12">
+        <v>313.00000000000739</v>
       </c>
       <c r="AM12" s="2">
         <v>3</v>
@@ -5710,15 +5745,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:102">
       <c r="A13" t="s">
         <v>89</v>
       </c>
       <c r="B13" t="s">
         <v>409</v>
       </c>
-      <c r="C13" s="4">
-        <v>3.9675925925925948E-2</v>
+      <c r="C13">
+        <v>3428.0000000000018</v>
       </c>
       <c r="D13" t="s">
         <v>208</v>
@@ -5726,8 +5761,8 @@
       <c r="E13" t="s">
         <v>209</v>
       </c>
-      <c r="F13" s="4">
-        <v>3.0208333333332504E-3</v>
+      <c r="F13">
+        <v>260.99999999999284</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -5750,8 +5785,8 @@
       <c r="M13" t="s">
         <v>211</v>
       </c>
-      <c r="N13" s="4">
-        <v>4.4097222222222454E-3</v>
+      <c r="N13">
+        <v>381.00000000000199</v>
       </c>
       <c r="O13">
         <v>3</v>
@@ -5774,8 +5809,8 @@
       <c r="U13" t="s">
         <v>213</v>
       </c>
-      <c r="V13" s="4">
-        <v>5.4745370370370416E-3</v>
+      <c r="V13">
+        <v>473.0000000000004</v>
       </c>
       <c r="W13">
         <v>3</v>
@@ -5798,8 +5833,8 @@
       <c r="AC13" t="s">
         <v>215</v>
       </c>
-      <c r="AD13" s="4">
-        <v>5.0000000000000044E-3</v>
+      <c r="AD13">
+        <v>432.0000000000004</v>
       </c>
       <c r="AE13">
         <v>3</v>
@@ -5822,8 +5857,8 @@
       <c r="AK13" t="s">
         <v>217</v>
       </c>
-      <c r="AL13" s="4">
-        <v>4.4791666666665897E-3</v>
+      <c r="AL13">
+        <v>386.99999999999335</v>
       </c>
       <c r="AM13" s="2">
         <v>4</v>
@@ -6018,15 +6053,15 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:102">
       <c r="A14" t="s">
         <v>89</v>
       </c>
       <c r="B14" t="s">
         <v>410</v>
       </c>
-      <c r="C14" s="4">
-        <v>2.9849537037037077E-2</v>
+      <c r="C14">
+        <v>2579.0000000000036</v>
       </c>
       <c r="D14" t="s">
         <v>218</v>
@@ -6034,8 +6069,8 @@
       <c r="E14" t="s">
         <v>219</v>
       </c>
-      <c r="F14" s="4">
-        <v>3.263888888888844E-3</v>
+      <c r="F14">
+        <v>281.99999999999613</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -6058,8 +6093,8 @@
       <c r="M14" t="s">
         <v>221</v>
       </c>
-      <c r="N14" s="4">
-        <v>1.3078703703703898E-3</v>
+      <c r="N14">
+        <v>113.00000000000168</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -6082,8 +6117,8 @@
       <c r="U14" t="s">
         <v>223</v>
       </c>
-      <c r="V14" s="4">
-        <v>4.8379629629630161E-3</v>
+      <c r="V14">
+        <v>418.0000000000046</v>
       </c>
       <c r="W14">
         <v>5</v>
@@ -6106,8 +6141,8 @@
       <c r="AC14" t="s">
         <v>225</v>
       </c>
-      <c r="AD14" s="4">
-        <v>2.372685185185075E-3</v>
+      <c r="AD14">
+        <v>204.99999999999048</v>
       </c>
       <c r="AE14">
         <v>2</v>
@@ -6130,8 +6165,8 @@
       <c r="AK14" t="s">
         <v>227</v>
       </c>
-      <c r="AL14" s="4">
-        <v>2.1875000000001199E-3</v>
+      <c r="AL14">
+        <v>189.00000000001035</v>
       </c>
       <c r="AM14" s="2">
         <v>4</v>
@@ -6326,15 +6361,15 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:102">
       <c r="A15" t="s">
         <v>89</v>
       </c>
       <c r="B15" t="s">
         <v>411</v>
       </c>
-      <c r="C15" s="4">
-        <v>4.0312500000000084E-2</v>
+      <c r="C15">
+        <v>3483.0000000000073</v>
       </c>
       <c r="D15" t="s">
         <v>228</v>
@@ -6342,8 +6377,8 @@
       <c r="E15" t="s">
         <v>229</v>
       </c>
-      <c r="F15" s="4">
-        <v>5.6249999999999911E-3</v>
+      <c r="F15">
+        <v>485.9999999999992</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -6366,8 +6401,8 @@
       <c r="M15" t="s">
         <v>231</v>
       </c>
-      <c r="N15" s="4">
-        <v>2.6041666666666297E-3</v>
+      <c r="N15">
+        <v>224.99999999999682</v>
       </c>
       <c r="O15">
         <v>3</v>
@@ -6390,8 +6425,8 @@
       <c r="U15" t="s">
         <v>233</v>
       </c>
-      <c r="V15" s="4">
-        <v>7.8587962962962665E-3</v>
+      <c r="V15">
+        <v>678.99999999999739</v>
       </c>
       <c r="W15">
         <v>4</v>
@@ -6414,8 +6449,8 @@
       <c r="AC15" t="s">
         <v>235</v>
       </c>
-      <c r="AD15" s="4">
-        <v>4.6180555555556113E-3</v>
+      <c r="AD15">
+        <v>399.00000000000483</v>
       </c>
       <c r="AE15">
         <v>2</v>
@@ -6438,8 +6473,8 @@
       <c r="AK15" t="s">
         <v>237</v>
       </c>
-      <c r="AL15" s="4">
-        <v>3.7615740740741255E-3</v>
+      <c r="AL15">
+        <v>325.00000000000443</v>
       </c>
       <c r="AM15" s="2">
         <v>2</v>
@@ -6634,15 +6669,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:102">
       <c r="A16" t="s">
         <v>89</v>
       </c>
       <c r="B16" t="s">
         <v>412</v>
       </c>
-      <c r="C16" s="4">
-        <v>4.5127314814814912E-2</v>
+      <c r="C16">
+        <v>3899.0000000000082</v>
       </c>
       <c r="D16" t="s">
         <v>238</v>
@@ -6650,8 +6685,8 @@
       <c r="E16" t="s">
         <v>239</v>
       </c>
-      <c r="F16" s="4">
-        <v>1.0162037037036997E-2</v>
+      <c r="F16">
+        <v>877.99999999999659</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -6674,8 +6709,8 @@
       <c r="M16" t="s">
         <v>241</v>
       </c>
-      <c r="N16" s="4">
-        <v>5.335648148148131E-3</v>
+      <c r="N16">
+        <v>460.99999999999852</v>
       </c>
       <c r="O16">
         <v>2</v>
@@ -6698,8 +6733,8 @@
       <c r="U16" t="s">
         <v>243</v>
       </c>
-      <c r="V16" s="4">
-        <v>1.0520833333333313E-2</v>
+      <c r="V16">
+        <v>908.99999999999818</v>
       </c>
       <c r="W16">
         <v>2</v>
@@ -6722,8 +6757,8 @@
       <c r="AC16" t="s">
         <v>245</v>
       </c>
-      <c r="AD16" s="4">
-        <v>5.4166666666666252E-3</v>
+      <c r="AD16">
+        <v>467.99999999999642</v>
       </c>
       <c r="AE16">
         <v>1</v>
@@ -6746,8 +6781,8 @@
       <c r="AK16" t="s">
         <v>247</v>
       </c>
-      <c r="AL16" s="4">
-        <v>4.7685185185185608E-3</v>
+      <c r="AL16">
+        <v>412.00000000000364</v>
       </c>
       <c r="AM16" s="2">
         <v>2</v>
@@ -6942,15 +6977,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:102">
       <c r="A17" t="s">
         <v>90</v>
       </c>
       <c r="B17" t="s">
         <v>413</v>
       </c>
-      <c r="C17" s="4">
-        <v>5.7256944444444458E-2</v>
+      <c r="C17">
+        <v>4947.0000000000009</v>
       </c>
       <c r="D17" t="s">
         <v>248</v>
@@ -6958,8 +6993,8 @@
       <c r="E17" t="s">
         <v>249</v>
       </c>
-      <c r="F17" s="4">
-        <v>1.2905092592592593E-2</v>
+      <c r="F17">
+        <v>1115</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -6982,8 +7017,8 @@
       <c r="M17" t="s">
         <v>251</v>
       </c>
-      <c r="N17" s="4">
-        <v>5.1851851851851816E-3</v>
+      <c r="N17">
+        <v>447.99999999999966</v>
       </c>
       <c r="O17">
         <v>2</v>
@@ -7006,8 +7041,8 @@
       <c r="U17" t="s">
         <v>253</v>
       </c>
-      <c r="V17" s="4">
-        <v>1.6041666666666621E-2</v>
+      <c r="V17">
+        <v>1385.9999999999961</v>
       </c>
       <c r="W17">
         <v>3</v>
@@ -7030,8 +7065,8 @@
       <c r="AC17" t="s">
         <v>255</v>
       </c>
-      <c r="AD17" s="4">
-        <v>7.4074074074074181E-3</v>
+      <c r="AD17">
+        <v>640.00000000000091</v>
       </c>
       <c r="AE17">
         <v>4</v>
@@ -7054,8 +7089,8 @@
       <c r="AK17" t="s">
         <v>257</v>
       </c>
-      <c r="AL17" s="4">
-        <v>2.1064814814815147E-3</v>
+      <c r="AL17">
+        <v>182.00000000000287</v>
       </c>
       <c r="AM17" s="2">
         <v>3</v>
@@ -7250,15 +7285,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:102">
       <c r="A18" t="s">
         <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>414</v>
       </c>
-      <c r="C18" s="4">
-        <v>2.6909722222222154E-2</v>
+      <c r="C18">
+        <v>2324.9999999999941</v>
       </c>
       <c r="D18" t="s">
         <v>258</v>
@@ -7266,8 +7301,8 @@
       <c r="E18" t="s">
         <v>259</v>
       </c>
-      <c r="F18" s="4">
-        <v>4.4328703703704342E-3</v>
+      <c r="F18">
+        <v>383.00000000000551</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -7290,8 +7325,8 @@
       <c r="M18" t="s">
         <v>261</v>
       </c>
-      <c r="N18" s="4">
-        <v>9.490740740740744E-4</v>
+      <c r="N18">
+        <v>82.000000000000028</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -7314,8 +7349,8 @@
       <c r="U18" t="s">
         <v>263</v>
       </c>
-      <c r="V18" s="4">
-        <v>2.9861111111111338E-3</v>
+      <c r="V18">
+        <v>258.00000000000193</v>
       </c>
       <c r="W18">
         <v>2</v>
@@ -7338,8 +7373,8 @@
       <c r="AC18" t="s">
         <v>265</v>
       </c>
-      <c r="AD18" s="4">
-        <v>3.5879629629629317E-3</v>
+      <c r="AD18">
+        <v>309.99999999999727</v>
       </c>
       <c r="AE18">
         <v>2</v>
@@ -7362,8 +7397,8 @@
       <c r="AK18" t="s">
         <v>267</v>
       </c>
-      <c r="AL18" s="4">
-        <v>1.2152777777778012E-3</v>
+      <c r="AL18">
+        <v>105.00000000000202</v>
       </c>
       <c r="AM18" s="2">
         <v>2</v>
@@ -7558,15 +7593,15 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:102">
       <c r="A19" t="s">
         <v>90</v>
       </c>
       <c r="B19" t="s">
         <v>415</v>
       </c>
-      <c r="C19" s="4">
-        <v>4.0729166666666705E-2</v>
+      <c r="C19">
+        <v>3519.0000000000032</v>
       </c>
       <c r="D19" t="s">
         <v>268</v>
@@ -7574,8 +7609,8 @@
       <c r="E19" t="s">
         <v>269</v>
       </c>
-      <c r="F19" s="4">
-        <v>1.5127314814814774E-2</v>
+      <c r="F19">
+        <v>1306.9999999999964</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -7598,8 +7633,8 @@
       <c r="M19" t="s">
         <v>271</v>
       </c>
-      <c r="N19" s="4">
-        <v>1.2499999999999734E-3</v>
+      <c r="N19">
+        <v>107.9999999999977</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -7622,8 +7657,8 @@
       <c r="U19" t="s">
         <v>273</v>
       </c>
-      <c r="V19" s="4">
-        <v>2.8935185185185452E-3</v>
+      <c r="V19">
+        <v>250.0000000000023</v>
       </c>
       <c r="W19">
         <v>2</v>
@@ -7646,8 +7681,8 @@
       <c r="AC19" t="s">
         <v>275</v>
       </c>
-      <c r="AD19" s="4">
-        <v>2.8009259259259567E-3</v>
+      <c r="AD19">
+        <v>242.00000000000267</v>
       </c>
       <c r="AE19">
         <v>2</v>
@@ -7670,8 +7705,8 @@
       <c r="AK19" t="s">
         <v>277</v>
       </c>
-      <c r="AL19" s="4">
-        <v>3.4490740740740766E-3</v>
+      <c r="AL19">
+        <v>298.00000000000023</v>
       </c>
       <c r="AM19" s="2">
         <v>2</v>
@@ -7866,15 +7901,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:102">
       <c r="A20" t="s">
         <v>90</v>
       </c>
       <c r="B20" t="s">
         <v>416</v>
       </c>
-      <c r="C20" s="4">
-        <v>2.8043981481481461E-2</v>
+      <c r="C20">
+        <v>2422.9999999999982</v>
       </c>
       <c r="D20" t="s">
         <v>278</v>
@@ -7882,8 +7917,8 @@
       <c r="E20" t="s">
         <v>279</v>
       </c>
-      <c r="F20" s="4">
-        <v>2.870370370370412E-3</v>
+      <c r="F20">
+        <v>248.00000000000358</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -7906,8 +7941,8 @@
       <c r="M20" t="s">
         <v>281</v>
       </c>
-      <c r="N20" s="4">
-        <v>1.4120370370370172E-3</v>
+      <c r="N20">
+        <v>121.99999999999829</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -7930,8 +7965,8 @@
       <c r="U20" t="s">
         <v>283</v>
       </c>
-      <c r="V20" s="4">
-        <v>3.6226851851852149E-3</v>
+      <c r="V20">
+        <v>313.00000000000256</v>
       </c>
       <c r="W20">
         <v>2</v>
@@ -7954,8 +7989,8 @@
       <c r="AC20" t="s">
         <v>285</v>
       </c>
-      <c r="AD20" s="4">
-        <v>2.5578703703703631E-3</v>
+      <c r="AD20">
+        <v>220.99999999999937</v>
       </c>
       <c r="AE20">
         <v>2</v>
@@ -7978,8 +8013,8 @@
       <c r="AK20" t="s">
         <v>287</v>
       </c>
-      <c r="AL20" s="4">
-        <v>2.7546296296296346E-3</v>
+      <c r="AL20">
+        <v>238.00000000000043</v>
       </c>
       <c r="AM20" s="2">
         <v>1</v>
@@ -8174,15 +8209,15 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="21" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:102">
       <c r="A21" t="s">
         <v>90</v>
       </c>
       <c r="B21" t="s">
         <v>417</v>
       </c>
-      <c r="C21" s="4">
-        <v>2.8564814814814821E-2</v>
+      <c r="C21">
+        <v>2468.0000000000005</v>
       </c>
       <c r="D21" t="s">
         <v>288</v>
@@ -8190,8 +8225,8 @@
       <c r="E21" t="s">
         <v>289</v>
       </c>
-      <c r="F21" s="4">
-        <v>1.7361111111108274E-4</v>
+      <c r="F21">
+        <v>14.999999999997549</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -8214,8 +8249,8 @@
       <c r="M21" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="4">
-        <v>1.2152777777778012E-3</v>
+      <c r="N21">
+        <v>105.00000000000202</v>
       </c>
       <c r="O21">
         <v>2</v>
@@ -8238,8 +8273,8 @@
       <c r="U21" t="s">
         <v>293</v>
       </c>
-      <c r="V21" s="4">
-        <v>2.8472222222222232E-3</v>
+      <c r="V21">
+        <v>246.00000000000009</v>
       </c>
       <c r="W21">
         <v>3</v>
@@ -8262,8 +8297,8 @@
       <c r="AC21" t="s">
         <v>295</v>
       </c>
-      <c r="AD21" s="4">
-        <v>7.4074074074081953E-4</v>
+      <c r="AD21">
+        <v>64.000000000006807</v>
       </c>
       <c r="AE21">
         <v>3</v>
@@ -8286,8 +8321,8 @@
       <c r="AK21" t="s">
         <v>297</v>
       </c>
-      <c r="AL21" s="4">
-        <v>2.8240740740740899E-3</v>
+      <c r="AL21">
+        <v>244.00000000000136</v>
       </c>
       <c r="AM21" s="2">
         <v>2</v>
@@ -8482,15 +8517,15 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="22" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:102">
       <c r="A22" t="s">
         <v>90</v>
       </c>
       <c r="B22" t="s">
         <v>418</v>
       </c>
-      <c r="C22" s="4">
-        <v>3.2245370370370396E-2</v>
+      <c r="C22">
+        <v>2786.0000000000023</v>
       </c>
       <c r="D22" t="s">
         <v>298</v>
@@ -8498,8 +8533,8 @@
       <c r="E22" t="s">
         <v>299</v>
       </c>
-      <c r="F22" s="4">
-        <v>4.9768518518518712E-3</v>
+      <c r="F22">
+        <v>430.00000000000165</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -8522,8 +8557,8 @@
       <c r="M22" t="s">
         <v>301</v>
       </c>
-      <c r="N22" s="4">
-        <v>3.2870370370370328E-3</v>
+      <c r="N22">
+        <v>283.99999999999966</v>
       </c>
       <c r="O22">
         <v>3</v>
@@ -8546,8 +8581,8 @@
       <c r="U22" t="s">
         <v>303</v>
       </c>
-      <c r="V22" s="4">
-        <v>4.4675925925926618E-3</v>
+      <c r="V22">
+        <v>386.00000000000597</v>
       </c>
       <c r="W22">
         <v>3</v>
@@ -8570,8 +8605,8 @@
       <c r="AC22" t="s">
         <v>305</v>
       </c>
-      <c r="AD22" s="4">
-        <v>3.310185185185166E-3</v>
+      <c r="AD22">
+        <v>285.99999999999835</v>
       </c>
       <c r="AE22">
         <v>2</v>
@@ -8594,8 +8629,8 @@
       <c r="AK22" t="s">
         <v>307</v>
       </c>
-      <c r="AL22" s="4">
-        <v>1.9328703703703765E-3</v>
+      <c r="AL22">
+        <v>167.00000000000051</v>
       </c>
       <c r="AM22" s="2">
         <v>2</v>
@@ -8790,15 +8825,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:102">
       <c r="A23" t="s">
         <v>90</v>
       </c>
       <c r="B23" t="s">
         <v>419</v>
       </c>
-      <c r="C23" s="4">
-        <v>4.3298611111111107E-2</v>
+      <c r="C23">
+        <v>3740.9999999999995</v>
       </c>
       <c r="D23" t="s">
         <v>308</v>
@@ -8806,8 +8841,8 @@
       <c r="E23" t="s">
         <v>309</v>
       </c>
-      <c r="F23" s="4">
-        <v>2.8587962962963731E-3</v>
+      <c r="F23">
+        <v>247.00000000000665</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -8830,8 +8865,8 @@
       <c r="M23" t="s">
         <v>311</v>
       </c>
-      <c r="N23" s="4">
-        <v>1.2962962962963509E-3</v>
+      <c r="N23">
+        <v>112.00000000000472</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -8854,8 +8889,8 @@
       <c r="U23" t="s">
         <v>313</v>
       </c>
-      <c r="V23" s="4">
-        <v>8.2986111111111316E-3</v>
+      <c r="V23">
+        <v>717.00000000000182</v>
       </c>
       <c r="W23">
         <v>4</v>
@@ -8878,8 +8913,8 @@
       <c r="AC23" t="s">
         <v>315</v>
       </c>
-      <c r="AD23" s="4">
-        <v>1.6759259259259307E-2</v>
+      <c r="AD23">
+        <v>1448.0000000000041</v>
       </c>
       <c r="AE23">
         <v>4</v>
@@ -8902,8 +8937,8 @@
       <c r="AK23" t="s">
         <v>317</v>
       </c>
-      <c r="AL23" s="4">
-        <v>2.6388888888888573E-3</v>
+      <c r="AL23">
+        <v>227.99999999999727</v>
       </c>
       <c r="AM23" s="2">
         <v>4</v>
@@ -9098,15 +9133,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:102">
       <c r="A24" t="s">
         <v>90</v>
       </c>
       <c r="B24" t="s">
         <v>420</v>
       </c>
-      <c r="C24" s="4">
-        <v>4.0451388888888884E-2</v>
+      <c r="C24">
+        <v>3494.9999999999995</v>
       </c>
       <c r="D24" t="s">
         <v>318</v>
@@ -9114,8 +9149,8 @@
       <c r="E24" t="s">
         <v>319</v>
       </c>
-      <c r="F24" s="4">
-        <v>1.9907407407407374E-3</v>
+      <c r="F24">
+        <v>171.99999999999972</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -9138,8 +9173,8 @@
       <c r="M24" t="s">
         <v>321</v>
       </c>
-      <c r="N24" s="4">
-        <v>4.7569444444444109E-3</v>
+      <c r="N24">
+        <v>410.9999999999971</v>
       </c>
       <c r="O24">
         <v>3</v>
@@ -9162,8 +9197,8 @@
       <c r="U24" t="s">
         <v>323</v>
       </c>
-      <c r="V24" s="4">
-        <v>6.9097222222221921E-3</v>
+      <c r="V24">
+        <v>596.99999999999739</v>
       </c>
       <c r="W24">
         <v>5</v>
@@ -9186,8 +9221,8 @@
       <c r="AC24" t="s">
         <v>325</v>
       </c>
-      <c r="AD24" s="4">
-        <v>5.5555555555555358E-3</v>
+      <c r="AD24">
+        <v>479.99999999999829</v>
       </c>
       <c r="AE24">
         <v>4</v>
@@ -9210,8 +9245,8 @@
       <c r="AK24" t="s">
         <v>327</v>
       </c>
-      <c r="AL24" s="4">
-        <v>4.8958333333333215E-3</v>
+      <c r="AL24">
+        <v>422.99999999999898</v>
       </c>
       <c r="AM24" s="2">
         <v>3</v>
@@ -9406,15 +9441,15 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:102">
       <c r="A25" t="s">
         <v>90</v>
       </c>
       <c r="B25" t="s">
         <v>421</v>
       </c>
-      <c r="C25" s="4">
-        <v>4.0277777777777857E-2</v>
+      <c r="C25">
+        <v>3480.0000000000068</v>
       </c>
       <c r="D25" t="s">
         <v>328</v>
@@ -9422,8 +9457,8 @@
       <c r="E25" t="s">
         <v>329</v>
       </c>
-      <c r="F25" s="4">
-        <v>3.657407407407387E-3</v>
+      <c r="F25">
+        <v>315.99999999999824</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -9446,8 +9481,8 @@
       <c r="M25" t="s">
         <v>331</v>
       </c>
-      <c r="N25" s="4">
-        <v>3.5532407407407041E-3</v>
+      <c r="N25">
+        <v>306.99999999999682</v>
       </c>
       <c r="O25">
         <v>2</v>
@@ -9470,8 +9505,8 @@
       <c r="U25" t="s">
         <v>333</v>
       </c>
-      <c r="V25" s="4">
-        <v>6.4467592592591938E-3</v>
+      <c r="V25">
+        <v>556.99999999999432</v>
       </c>
       <c r="W25">
         <v>4</v>
@@ -9494,8 +9529,8 @@
       <c r="AC25" t="s">
         <v>335</v>
       </c>
-      <c r="AD25" s="4">
-        <v>7.7430555555555447E-3</v>
+      <c r="AD25">
+        <v>668.99999999999909</v>
       </c>
       <c r="AE25">
         <v>3</v>
@@ -9518,8 +9553,8 @@
       <c r="AK25" t="s">
         <v>337</v>
       </c>
-      <c r="AL25" s="4">
-        <v>4.0393518518518912E-3</v>
+      <c r="AL25">
+        <v>349.00000000000341</v>
       </c>
       <c r="AM25" s="2">
         <v>3</v>
@@ -9714,15 +9749,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:102">
       <c r="A26" t="s">
         <v>90</v>
       </c>
       <c r="B26" t="s">
         <v>422</v>
       </c>
-      <c r="C26" s="4">
-        <v>2.8414351851851927E-2</v>
+      <c r="C26">
+        <v>2455.0000000000064</v>
       </c>
       <c r="D26" t="s">
         <v>338</v>
@@ -9730,8 +9765,8 @@
       <c r="E26" t="s">
         <v>339</v>
       </c>
-      <c r="F26" s="4">
-        <v>6.2962962962963553E-3</v>
+      <c r="F26">
+        <v>544.00000000000512</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -9754,8 +9789,8 @@
       <c r="M26" t="s">
         <v>341</v>
       </c>
-      <c r="N26" s="4">
-        <v>2.8124999999998845E-3</v>
+      <c r="N26">
+        <v>242.99999999999002</v>
       </c>
       <c r="O26">
         <v>3</v>
@@ -9778,8 +9813,8 @@
       <c r="U26" t="s">
         <v>343</v>
       </c>
-      <c r="V26" s="4">
-        <v>5.2777777777777146E-3</v>
+      <c r="V26">
+        <v>455.99999999999454</v>
       </c>
       <c r="W26">
         <v>2</v>
@@ -9802,8 +9837,8 @@
       <c r="AC26" t="s">
         <v>345</v>
       </c>
-      <c r="AD26" s="4">
-        <v>3.6342592592591982E-3</v>
+      <c r="AD26">
+        <v>313.99999999999471</v>
       </c>
       <c r="AE26">
         <v>2</v>
@@ -9826,8 +9861,8 @@
       <c r="AK26" t="s">
         <v>347</v>
       </c>
-      <c r="AL26" s="4">
-        <v>2.766203703703729E-3</v>
+      <c r="AL26">
+        <v>239.00000000000219</v>
       </c>
       <c r="AM26" s="2">
         <v>2</v>
@@ -10022,15 +10057,15 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="27" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:102">
       <c r="A27" t="s">
         <v>90</v>
       </c>
       <c r="B27" t="s">
         <v>423</v>
       </c>
-      <c r="C27" s="4">
-        <v>4.8333333333333339E-2</v>
+      <c r="C27">
+        <v>4176.0000000000009</v>
       </c>
       <c r="D27" t="s">
         <v>348</v>
@@ -10038,8 +10073,8 @@
       <c r="E27" t="s">
         <v>349</v>
       </c>
-      <c r="F27" s="4">
-        <v>7.0601851851848085E-4</v>
+      <c r="F27">
+        <v>60.999999999996746</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -10062,8 +10097,8 @@
       <c r="M27" t="s">
         <v>351</v>
       </c>
-      <c r="N27" s="4">
-        <v>2.4305555555554914E-3</v>
+      <c r="N27">
+        <v>209.99999999999446</v>
       </c>
       <c r="O27">
         <v>2</v>
@@ -10086,8 +10121,8 @@
       <c r="U27" t="s">
         <v>353</v>
       </c>
-      <c r="V27" s="4">
-        <v>7.4421296296296457E-3</v>
+      <c r="V27">
+        <v>643.00000000000136</v>
       </c>
       <c r="W27">
         <v>3</v>
@@ -10110,8 +10145,8 @@
       <c r="AC27" t="s">
         <v>355</v>
       </c>
-      <c r="AD27" s="4">
-        <v>6.2037037037036002E-3</v>
+      <c r="AD27">
+        <v>535.99999999999102</v>
       </c>
       <c r="AE27">
         <v>4</v>
@@ -10134,8 +10169,8 @@
       <c r="AK27" t="s">
         <v>357</v>
       </c>
-      <c r="AL27" s="4">
-        <v>3.4027777777777546E-3</v>
+      <c r="AL27">
+        <v>293.99999999999801</v>
       </c>
       <c r="AM27" s="2">
         <v>3</v>
@@ -10330,15 +10365,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:102">
       <c r="A28" t="s">
         <v>90</v>
       </c>
       <c r="B28" t="s">
         <v>424</v>
       </c>
-      <c r="C28" s="4">
-        <v>3.168981481481481E-2</v>
+      <c r="C28">
+        <v>2737.9999999999995</v>
       </c>
       <c r="D28" t="s">
         <v>358</v>
@@ -10346,8 +10381,8 @@
       <c r="E28" t="s">
         <v>359</v>
       </c>
-      <c r="F28" s="4">
-        <v>8.0439814814815547E-3</v>
+      <c r="F28">
+        <v>695.00000000000637</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -10370,8 +10405,8 @@
       <c r="M28" t="s">
         <v>361</v>
       </c>
-      <c r="N28" s="4">
-        <v>2.6504629629630072E-3</v>
+      <c r="N28">
+        <v>229.00000000000381</v>
       </c>
       <c r="O28">
         <v>4</v>
@@ -10394,8 +10429,8 @@
       <c r="U28" t="s">
         <v>363</v>
       </c>
-      <c r="V28" s="4">
-        <v>7.1064814814815191E-3</v>
+      <c r="V28">
+        <v>614.0000000000033</v>
       </c>
       <c r="W28">
         <v>5</v>
@@ -10418,8 +10453,8 @@
       <c r="AC28" t="s">
         <v>365</v>
       </c>
-      <c r="AD28" s="4">
-        <v>3.5185185185184764E-3</v>
+      <c r="AD28">
+        <v>303.99999999999636</v>
       </c>
       <c r="AE28">
         <v>4</v>
@@ -10442,8 +10477,8 @@
       <c r="AK28" t="s">
         <v>367</v>
       </c>
-      <c r="AL28" s="4">
-        <v>2.0717592592592871E-3</v>
+      <c r="AL28">
+        <v>179.00000000000239</v>
       </c>
       <c r="AM28" s="2">
         <v>4</v>
@@ -10638,15 +10673,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:102">
       <c r="A29" t="s">
         <v>90</v>
       </c>
       <c r="B29" t="s">
         <v>425</v>
       </c>
-      <c r="C29" s="4">
-        <v>2.5868055555555602E-2</v>
+      <c r="C29">
+        <v>2235.0000000000041</v>
       </c>
       <c r="D29" t="s">
         <v>368</v>
@@ -10654,8 +10689,8 @@
       <c r="E29" t="s">
         <v>369</v>
       </c>
-      <c r="F29" s="4">
-        <v>1.8055555555555047E-3</v>
+      <c r="F29">
+        <v>155.99999999999562</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -10678,8 +10713,8 @@
       <c r="M29" t="s">
         <v>371</v>
       </c>
-      <c r="N29" s="4">
-        <v>9.9537037037034093E-4</v>
+      <c r="N29">
+        <v>85.999999999997456</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -10702,8 +10737,8 @@
       <c r="U29" t="s">
         <v>373</v>
       </c>
-      <c r="V29" s="4">
-        <v>1.979166666666643E-3</v>
+      <c r="V29">
+        <v>170.99999999999795</v>
       </c>
       <c r="W29">
         <v>3</v>
@@ -10726,8 +10761,8 @@
       <c r="AC29" t="s">
         <v>375</v>
       </c>
-      <c r="AD29" s="4">
-        <v>1.678240740740744E-3</v>
+      <c r="AD29">
+        <v>145.00000000000028</v>
       </c>
       <c r="AE29">
         <v>3</v>
@@ -10750,8 +10785,8 @@
       <c r="AK29" t="s">
         <v>377</v>
       </c>
-      <c r="AL29" s="4">
-        <v>2.0717592592592871E-3</v>
+      <c r="AL29">
+        <v>179.00000000000239</v>
       </c>
       <c r="AM29" s="2">
         <v>3</v>
@@ -10946,15 +10981,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:102">
       <c r="A30" t="s">
         <v>90</v>
       </c>
       <c r="B30" t="s">
         <v>426</v>
       </c>
-      <c r="C30" s="4">
-        <v>3.614583333333321E-2</v>
+      <c r="C30">
+        <v>3122.9999999999895</v>
       </c>
       <c r="D30" t="s">
         <v>378</v>
@@ -10962,8 +10997,8 @@
       <c r="E30" t="s">
         <v>379</v>
       </c>
-      <c r="F30" s="4">
-        <v>2.3842592592593359E-3</v>
+      <c r="F30">
+        <v>206.00000000000662</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -10986,8 +11021,8 @@
       <c r="M30" t="s">
         <v>381</v>
       </c>
-      <c r="N30" s="4">
-        <v>5.1041666666666874E-3</v>
+      <c r="N30">
+        <v>441.00000000000182</v>
       </c>
       <c r="O30">
         <v>3</v>
@@ -11010,8 +11045,8 @@
       <c r="U30" t="s">
         <v>383</v>
       </c>
-      <c r="V30" s="4">
-        <v>5.5208333333333082E-3</v>
+      <c r="V30">
+        <v>476.99999999999784</v>
       </c>
       <c r="W30">
         <v>4</v>
@@ -11034,8 +11069,8 @@
       <c r="AC30" t="s">
         <v>385</v>
       </c>
-      <c r="AD30" s="4">
-        <v>8.2407407407406597E-3</v>
+      <c r="AD30">
+        <v>711.99999999999295</v>
       </c>
       <c r="AE30">
         <v>4</v>
@@ -11058,8 +11093,8 @@
       <c r="AK30" t="s">
         <v>387</v>
       </c>
-      <c r="AL30" s="4">
-        <v>4.2708333333332238E-3</v>
+      <c r="AL30">
+        <v>368.99999999999056</v>
       </c>
       <c r="AM30" s="2">
         <v>4</v>
@@ -11254,15 +11289,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:102">
       <c r="A31" t="s">
         <v>90</v>
       </c>
       <c r="B31" t="s">
         <v>427</v>
       </c>
-      <c r="C31" s="4">
-        <v>3.9155092592592533E-2</v>
+      <c r="C31">
+        <v>3382.999999999995</v>
       </c>
       <c r="D31" t="s">
         <v>388</v>
@@ -11270,8 +11305,8 @@
       <c r="E31" t="s">
         <v>389</v>
       </c>
-      <c r="F31" s="4">
-        <v>9.2592592592588563E-4</v>
+      <c r="F31">
+        <v>79.999999999996518</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -11294,8 +11329,8 @@
       <c r="M31" t="s">
         <v>391</v>
       </c>
-      <c r="N31" s="4">
-        <v>1.3773148148148451E-3</v>
+      <c r="N31">
+        <v>119.00000000000261</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -11318,8 +11353,8 @@
       <c r="U31" t="s">
         <v>393</v>
       </c>
-      <c r="V31" s="4">
-        <v>7.9398148148147607E-3</v>
+      <c r="V31">
+        <v>685.99999999999534</v>
       </c>
       <c r="W31">
         <v>1</v>
@@ -11342,8 +11377,8 @@
       <c r="AC31" t="s">
         <v>395</v>
       </c>
-      <c r="AD31" s="4">
-        <v>3.9930555555555136E-3</v>
+      <c r="AD31">
+        <v>344.99999999999636</v>
       </c>
       <c r="AE31">
         <v>1</v>
@@ -11366,8 +11401,8 @@
       <c r="AK31" t="s">
         <v>397</v>
       </c>
-      <c r="AL31" s="4">
-        <v>3.159722222222161E-3</v>
+      <c r="AL31">
+        <v>272.99999999999471</v>
       </c>
       <c r="AM31" s="2">
         <v>1</v>
@@ -11562,94 +11597,94 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2">
       <c r="B64" s="1"/>
     </row>
   </sheetData>
@@ -11661,19 +11696,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31ADCCFE-BA19-9B49-8E9D-2351DBA05868}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>438</v>
       </c>
@@ -11687,7 +11722,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -11701,7 +11736,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>428</v>
       </c>
@@ -11712,7 +11747,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -11726,7 +11761,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -11737,7 +11772,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -11748,7 +11783,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>429</v>
       </c>
@@ -11759,10 +11794,10 @@
         <v>442</v>
       </c>
       <c r="D7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -11773,10 +11808,10 @@
         <v>444</v>
       </c>
       <c r="D8" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -11787,10 +11822,10 @@
         <v>444</v>
       </c>
       <c r="D9" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -11801,10 +11836,10 @@
         <v>444</v>
       </c>
       <c r="D10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -11815,10 +11850,10 @@
         <v>444</v>
       </c>
       <c r="D11" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -11829,10 +11864,10 @@
         <v>443</v>
       </c>
       <c r="D12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -11843,7 +11878,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -11854,7 +11889,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>430</v>
       </c>
@@ -11865,10 +11900,10 @@
         <v>442</v>
       </c>
       <c r="D15" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -11879,10 +11914,10 @@
         <v>444</v>
       </c>
       <c r="D16" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -11893,10 +11928,10 @@
         <v>444</v>
       </c>
       <c r="D17" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -11907,10 +11942,10 @@
         <v>444</v>
       </c>
       <c r="D18" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -11921,10 +11956,10 @@
         <v>444</v>
       </c>
       <c r="D19" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -11935,10 +11970,10 @@
         <v>443</v>
       </c>
       <c r="D20" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -11949,7 +11984,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -11960,7 +11995,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>431</v>
       </c>
@@ -11971,10 +12006,10 @@
         <v>442</v>
       </c>
       <c r="D23" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -11985,10 +12020,10 @@
         <v>444</v>
       </c>
       <c r="D24" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -11999,10 +12034,10 @@
         <v>444</v>
       </c>
       <c r="D25" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -12013,10 +12048,10 @@
         <v>444</v>
       </c>
       <c r="D26" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -12027,10 +12062,10 @@
         <v>444</v>
       </c>
       <c r="D27" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -12041,10 +12076,10 @@
         <v>443</v>
       </c>
       <c r="D28" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -12055,7 +12090,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -12066,7 +12101,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>432</v>
       </c>
@@ -12077,10 +12112,10 @@
         <v>442</v>
       </c>
       <c r="D31" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -12091,10 +12126,10 @@
         <v>444</v>
       </c>
       <c r="D32" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -12105,10 +12140,10 @@
         <v>444</v>
       </c>
       <c r="D33" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -12118,11 +12153,11 @@
       <c r="C34" t="s">
         <v>444</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -12133,10 +12168,10 @@
         <v>444</v>
       </c>
       <c r="D35" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -12147,10 +12182,10 @@
         <v>443</v>
       </c>
       <c r="D36" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -12161,7 +12196,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -12172,7 +12207,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>433</v>
       </c>
@@ -12183,10 +12218,10 @@
         <v>442</v>
       </c>
       <c r="D39" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -12197,10 +12232,10 @@
         <v>444</v>
       </c>
       <c r="D40" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -12211,10 +12246,10 @@
         <v>444</v>
       </c>
       <c r="D41" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -12225,10 +12260,10 @@
         <v>444</v>
       </c>
       <c r="D42" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -12239,10 +12274,10 @@
         <v>444</v>
       </c>
       <c r="D43" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -12253,10 +12288,10 @@
         <v>443</v>
       </c>
       <c r="D44" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -12267,10 +12302,10 @@
         <v>446</v>
       </c>
       <c r="D45" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -12281,10 +12316,10 @@
         <v>446</v>
       </c>
       <c r="D46" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -12295,10 +12330,10 @@
         <v>446</v>
       </c>
       <c r="D47" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -12309,10 +12344,10 @@
         <v>442</v>
       </c>
       <c r="D48" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -12323,10 +12358,10 @@
         <v>446</v>
       </c>
       <c r="D49" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -12337,10 +12372,10 @@
         <v>446</v>
       </c>
       <c r="D50" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -12351,10 +12386,10 @@
         <v>446</v>
       </c>
       <c r="D51" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -12365,10 +12400,10 @@
         <v>442</v>
       </c>
       <c r="D52" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -12379,10 +12414,10 @@
         <v>446</v>
       </c>
       <c r="D53" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -12393,10 +12428,10 @@
         <v>446</v>
       </c>
       <c r="D54" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -12407,10 +12442,10 @@
         <v>446</v>
       </c>
       <c r="D55" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -12421,10 +12456,10 @@
         <v>442</v>
       </c>
       <c r="D56" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -12435,10 +12470,10 @@
         <v>446</v>
       </c>
       <c r="D57" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -12449,10 +12484,10 @@
         <v>446</v>
       </c>
       <c r="D58" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -12463,10 +12498,10 @@
         <v>446</v>
       </c>
       <c r="D59" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -12477,10 +12512,10 @@
         <v>442</v>
       </c>
       <c r="D60" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -12491,10 +12526,10 @@
         <v>446</v>
       </c>
       <c r="D61" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -12505,10 +12540,10 @@
         <v>446</v>
       </c>
       <c r="D62" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -12519,10 +12554,10 @@
         <v>446</v>
       </c>
       <c r="D63" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>56</v>
       </c>
@@ -12533,10 +12568,10 @@
         <v>442</v>
       </c>
       <c r="D64" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>57</v>
       </c>
@@ -12547,10 +12582,10 @@
         <v>446</v>
       </c>
       <c r="D65" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>58</v>
       </c>
@@ -12561,10 +12596,10 @@
         <v>446</v>
       </c>
       <c r="D66" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>59</v>
       </c>
@@ -12575,10 +12610,10 @@
         <v>446</v>
       </c>
       <c r="D67" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>60</v>
       </c>
@@ -12589,10 +12624,10 @@
         <v>442</v>
       </c>
       <c r="D68" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>61</v>
       </c>
@@ -12603,10 +12638,10 @@
         <v>446</v>
       </c>
       <c r="D69" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -12617,10 +12652,10 @@
         <v>446</v>
       </c>
       <c r="D70" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>63</v>
       </c>
@@ -12631,10 +12666,10 @@
         <v>446</v>
       </c>
       <c r="D71" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>64</v>
       </c>
@@ -12645,10 +12680,10 @@
         <v>442</v>
       </c>
       <c r="D72" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>65</v>
       </c>
@@ -12659,10 +12694,10 @@
         <v>446</v>
       </c>
       <c r="D73" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>66</v>
       </c>
@@ -12673,10 +12708,10 @@
         <v>446</v>
       </c>
       <c r="D74" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>67</v>
       </c>
@@ -12687,10 +12722,10 @@
         <v>446</v>
       </c>
       <c r="D75" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>68</v>
       </c>
@@ -12701,10 +12736,10 @@
         <v>442</v>
       </c>
       <c r="D76" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -12715,10 +12750,10 @@
         <v>442</v>
       </c>
       <c r="D77" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -12729,10 +12764,10 @@
         <v>442</v>
       </c>
       <c r="D78" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -12743,10 +12778,10 @@
         <v>447</v>
       </c>
       <c r="D79" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -12757,10 +12792,10 @@
         <v>447</v>
       </c>
       <c r="D80" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -12771,10 +12806,10 @@
         <v>447</v>
       </c>
       <c r="D81" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -12785,10 +12820,10 @@
         <v>448</v>
       </c>
       <c r="D82" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -12799,10 +12834,10 @@
         <v>447</v>
       </c>
       <c r="D83" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -12813,10 +12848,10 @@
         <v>447</v>
       </c>
       <c r="D84" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -12827,10 +12862,10 @@
         <v>447</v>
       </c>
       <c r="D85" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -12841,10 +12876,10 @@
         <v>448</v>
       </c>
       <c r="D86" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -12855,10 +12890,10 @@
         <v>447</v>
       </c>
       <c r="D87" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -12869,10 +12904,10 @@
         <v>447</v>
       </c>
       <c r="D88" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -12883,10 +12918,10 @@
         <v>447</v>
       </c>
       <c r="D89" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -12897,10 +12932,10 @@
         <v>448</v>
       </c>
       <c r="D90" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -12911,10 +12946,10 @@
         <v>448</v>
       </c>
       <c r="D91" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>69</v>
       </c>
@@ -12925,10 +12960,10 @@
         <v>444</v>
       </c>
       <c r="D92" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>70</v>
       </c>
@@ -12939,10 +12974,10 @@
         <v>444</v>
       </c>
       <c r="D93" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>71</v>
       </c>
@@ -12953,10 +12988,10 @@
         <v>444</v>
       </c>
       <c r="D94" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>72</v>
       </c>
@@ -12967,10 +13002,10 @@
         <v>444</v>
       </c>
       <c r="D95" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>73</v>
       </c>
@@ -12981,10 +13016,10 @@
         <v>444</v>
       </c>
       <c r="D96" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>74</v>
       </c>
@@ -12995,10 +13030,10 @@
         <v>444</v>
       </c>
       <c r="D97" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>75</v>
       </c>
@@ -13009,10 +13044,10 @@
         <v>444</v>
       </c>
       <c r="D98" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>76</v>
       </c>
@@ -13023,10 +13058,10 @@
         <v>444</v>
       </c>
       <c r="D99" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>94</v>
       </c>
@@ -13037,10 +13072,10 @@
         <v>443</v>
       </c>
       <c r="D100" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>95</v>
       </c>
@@ -13051,10 +13086,10 @@
         <v>443</v>
       </c>
       <c r="D101" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>96</v>
       </c>
@@ -13065,10 +13100,10 @@
         <v>443</v>
       </c>
       <c r="D102" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>97</v>
       </c>
@@ -13079,7 +13114,7 @@
         <v>443</v>
       </c>
       <c r="D103" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
